--- a/downloaded_files/MDPS352_Lecture-35693.xlsx
+++ b/downloaded_files/MDPS352_Lecture-35693.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -274,15 +274,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Tarek Mohamed Kamal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عاطف محمود احمد خليل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed atef</x:t>
   </x:si>
   <x:si>
     <x:t>1230111</x:t>
@@ -470,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -780,7 +771,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.270625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.350625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1021,7 +1012,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4286578704</x:v>
+        <x:v>45927.4317968403</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1725,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4192552083</x:v>
+        <x:v>45907.4151855671</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45907.4204639699</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45907.4252784722</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4252784722</x:v>
+        <x:v>45907.4176709838</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4176709838</x:v>
+        <x:v>45907.4205620023</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4205620023</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45906.7512438657</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1940,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.7512438657</x:v>
+        <x:v>45907.4197487269</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1966,38 +1957,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45907.4197487269</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Lecture-35693.xlsx
+++ b/downloaded_files/MDPS352_Lecture-35693.xlsx
@@ -1396,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4202460995</x:v>
+        <x:v>45927.8136034722</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>

--- a/downloaded_files/MDPS352_Lecture-35693.xlsx
+++ b/downloaded_files/MDPS352_Lecture-35693.xlsx
@@ -948,7 +948,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4256618056</x:v>
+        <x:v>45928.8100087963</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1716,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45928.9689430556</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1780,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4252784722</x:v>
+        <x:v>45928.7392195255</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>

--- a/downloaded_files/MDPS352_Lecture-35693.xlsx
+++ b/downloaded_files/MDPS352_Lecture-35693.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Amgad Hassan Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر طارق رفعت محمد عبداللاه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Tarek Refaat Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230075</x:t>
@@ -461,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1300,7 +1309,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4199939468</x:v>
+        <x:v>45929.3748646991</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1332,7 +1341,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4206420949</x:v>
+        <x:v>45907.4199939468</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1364,7 +1373,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4180099537</x:v>
+        <x:v>45907.4206420949</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1396,7 +1405,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.8136034722</x:v>
+        <x:v>45907.4180099537</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1428,7 +1437,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4162157407</x:v>
+        <x:v>45927.8136034722</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1460,7 +1469,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4201690162</x:v>
+        <x:v>45907.4162157407</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1492,7 +1501,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4185231481</x:v>
+        <x:v>45907.4201690162</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1533,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4219669792</x:v>
+        <x:v>45907.4185231481</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1565,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45918.3718171643</x:v>
+        <x:v>45907.4219669792</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1597,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4203136574</x:v>
+        <x:v>45918.3718171643</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4189993056</x:v>
+        <x:v>45907.4203136574</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.667030787</x:v>
+        <x:v>45907.4189993056</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45906.667030787</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45928.9689430556</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45928.9689430556</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45928.7392195255</x:v>
+        <x:v>45907.4204639699</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4176709838</x:v>
+        <x:v>45928.7392195255</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4205620023</x:v>
+        <x:v>45907.4176709838</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45907.4205620023</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.7512438657</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1940,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4197487269</x:v>
+        <x:v>45906.7512438657</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1957,6 +1966,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45907.4197487269</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Lecture-35693.xlsx
+++ b/downloaded_files/MDPS352_Lecture-35693.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -265,15 +265,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed Maher</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد حسنى حسن احمد محمد السحلى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Hosny Hassan Ahmed Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230106</x:t>
@@ -470,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1693,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.667030787</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45928.9689430556</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45928.9689430556</x:v>
+        <x:v>45907.4204639699</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45928.7392195255</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45928.7392195255</x:v>
+        <x:v>45907.4176709838</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4176709838</x:v>
+        <x:v>45907.4205620023</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4205620023</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45906.7512438657</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1940,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.7512438657</x:v>
+        <x:v>45907.4197487269</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1966,38 +1957,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45907.4197487269</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Lecture-35693.xlsx
+++ b/downloaded_files/MDPS352_Lecture-35693.xlsx
@@ -1780,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45928.7392195255</x:v>
+        <x:v>45931.3123583333</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>

--- a/downloaded_files/MDPS352_Lecture-35693.xlsx
+++ b/downloaded_files/MDPS352_Lecture-35693.xlsx
@@ -81,7 +81,7 @@
     <x:t>1230179</x:t>
   </x:si>
   <x:si>
-    <x:t>حمزة محمد سيد حسن</x:t>
+    <x:t>حمزة محمد سيد على على حسن</x:t>
   </x:si>
   <x:si>
     <x:t>Hamza Mohamed Sayed Aly Aly Hassan</x:t>
